--- a/data/trans_orig/P3A$otra-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P3A$otra-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6186</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2529</v>
+        <v>2512</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14914</v>
+        <v>13511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01123547933695494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004593512761992619</v>
+        <v>0.004562220825426415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02708597607975483</v>
+        <v>0.02453718316046311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>9243</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4152</v>
+        <v>4070</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19933</v>
+        <v>19230</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01895068789056172</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008512599937730438</v>
+        <v>0.008345529021494711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04086937111163118</v>
+        <v>0.03942673658687358</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -783,19 +783,19 @@
         <v>15429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8614</v>
+        <v>9149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26338</v>
+        <v>26015</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01485946191362133</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00829544707109371</v>
+        <v>0.008811229975980901</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02536542610113188</v>
+        <v>0.02505411913490383</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4298</v>
+        <v>4070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14495</v>
+        <v>14310</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01477011535083258</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007805474057356192</v>
+        <v>0.007391878318047792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.026324579135366</v>
+        <v>0.02598949513264137</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>4833</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2123</v>
+        <v>2218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9074</v>
+        <v>9876</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.009909035586106014</v>
+        <v>0.009909035586106016</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00435332002383877</v>
+        <v>0.004547134345701255</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01860427930424106</v>
+        <v>0.02024913138114793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -854,19 +854,19 @@
         <v>12966</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7905</v>
+        <v>7634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19525</v>
+        <v>19437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01248677223071445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007613466197679705</v>
+        <v>0.007351657550779945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01880362587076086</v>
+        <v>0.01871871564292328</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>31763</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22902</v>
+        <v>23036</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43375</v>
+        <v>43122</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0576858130476816</v>
+        <v>0.05768581304768159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04159278146422545</v>
+        <v>0.041836448198951</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07877497621101996</v>
+        <v>0.07831587053673589</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -904,19 +904,19 @@
         <v>34231</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24621</v>
+        <v>25481</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44183</v>
+        <v>44823</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07018445657412213</v>
+        <v>0.07018445657412212</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05047976304748401</v>
+        <v>0.05224266776394985</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09058763431789194</v>
+        <v>0.09190081932754965</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>91</v>
@@ -925,19 +925,19 @@
         <v>65994</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52878</v>
+        <v>53531</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>82195</v>
+        <v>82442</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06355666748500069</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05092501110520354</v>
+        <v>0.05155350280068431</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07915954958398637</v>
+        <v>0.07939674024623</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>7336</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3800</v>
+        <v>3488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12865</v>
+        <v>13138</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0133236652820124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006901166859095227</v>
+        <v>0.006334943241286312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02336432995354375</v>
+        <v>0.02386045451842273</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4728</v>
+        <v>4531</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.002627144599365111</v>
+        <v>0.00262714459936511</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009694781498112068</v>
+        <v>0.009289892586732067</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -996,19 +996,19 @@
         <v>8618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4358</v>
+        <v>4628</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14368</v>
+        <v>15065</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.008299302775733335</v>
+        <v>0.008299302775733333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004197435033372211</v>
+        <v>0.004456631468340673</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01383703611278277</v>
+        <v>0.01450899959902493</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>327450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>302902</v>
+        <v>300914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>351045</v>
+        <v>352553</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5946948466482369</v>
+        <v>0.5946948466482368</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5501127459038262</v>
+        <v>0.5465031033576628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6375474615213332</v>
+        <v>0.6402854775499304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>239</v>
@@ -1046,19 +1046,19 @@
         <v>166828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>150449</v>
+        <v>150198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>186079</v>
+        <v>185644</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3420479935064934</v>
+        <v>0.3420479935064933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3084659693086912</v>
+        <v>0.3079508824861897</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3815184014916367</v>
+        <v>0.3806260744727207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>583</v>
@@ -1067,19 +1067,19 @@
         <v>494278</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>462560</v>
+        <v>465771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>522849</v>
+        <v>524515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4760217365860024</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4454749565954792</v>
+        <v>0.4485673414899936</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5035376037049876</v>
+        <v>0.5051419066211157</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>103157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>82757</v>
+        <v>84009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>124833</v>
+        <v>124429</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1873474057182063</v>
+        <v>0.1873474057182062</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.15029848055874</v>
+        <v>0.1525728179562185</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2267150000079444</v>
+        <v>0.2259810210629279</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>142</v>
@@ -1117,19 +1117,19 @@
         <v>107547</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>91346</v>
+        <v>91827</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>126437</v>
+        <v>126088</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2205027126519797</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1872856229893587</v>
+        <v>0.1882729989215275</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2592338567557472</v>
+        <v>0.2585185898126165</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>233</v>
@@ -1138,19 +1138,19 @@
         <v>210704</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>185322</v>
+        <v>187270</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>239891</v>
+        <v>240339</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2029210942085648</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1784769922934295</v>
+        <v>0.1803534798921248</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.231030251504904</v>
+        <v>0.2314624451755252</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>392403</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>370461</v>
+        <v>368368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>413489</v>
+        <v>412513</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7126587038176021</v>
+        <v>0.7126587038176022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6728098843944322</v>
+        <v>0.6690090756552847</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7509543392168838</v>
+        <v>0.7491811253312706</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>641</v>
@@ -1188,19 +1188,19 @@
         <v>449313</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>433576</v>
+        <v>434540</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>460108</v>
+        <v>460508</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9212247364047134</v>
+        <v>0.9212247364047133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8889590533787023</v>
+        <v>0.890936227214543</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9433580138418786</v>
+        <v>0.9441796033854777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1028</v>
@@ -1209,19 +1209,19 @@
         <v>841715</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>810902</v>
+        <v>814711</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>864923</v>
+        <v>866545</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8106262004741607</v>
+        <v>0.8106262004741608</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7809509926222988</v>
+        <v>0.7846189329499987</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8329771041108197</v>
+        <v>0.83453852428513</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>9377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4462</v>
+        <v>4634</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18319</v>
+        <v>18123</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01942589156456085</v>
+        <v>0.01942589156456084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009243684602189021</v>
+        <v>0.009599583917067285</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03794808988538446</v>
+        <v>0.03754349731349198</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1263,19 +1263,19 @@
         <v>1818</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5668</v>
+        <v>4923</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004296982812052127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001037150520627014</v>
+        <v>0.001007612837549185</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0133956867140534</v>
+        <v>0.0116335809958706</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1284,19 +1284,19 @@
         <v>11196</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5669</v>
+        <v>5847</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19781</v>
+        <v>19527</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01235900807263363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006257671510434796</v>
+        <v>0.006454445870579518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02183670677488815</v>
+        <v>0.02155640712614972</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>9002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4732</v>
+        <v>4494</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15558</v>
+        <v>15574</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01864834769783524</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009802857704714285</v>
+        <v>0.009309471792091378</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03222845972860385</v>
+        <v>0.03226203465472222</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1334,19 +1334,19 @@
         <v>7571</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3859</v>
+        <v>4110</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12773</v>
+        <v>14238</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01789319693128049</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009118757747482938</v>
+        <v>0.009712517287578968</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03018678092072277</v>
+        <v>0.03364843615498691</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1355,19 +1355,19 @@
         <v>16573</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10445</v>
+        <v>10893</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24721</v>
+        <v>25479</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01829560827866219</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01153031472430166</v>
+        <v>0.01202465067513936</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02728944497285865</v>
+        <v>0.02812603485801344</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>16080</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9850</v>
+        <v>10212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25087</v>
+        <v>26067</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03331097348026105</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02040399975433539</v>
+        <v>0.02115565178233265</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05196982537450835</v>
+        <v>0.05399854720452121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1405,19 +1405,19 @@
         <v>15734</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10454</v>
+        <v>10604</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22815</v>
+        <v>22963</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03718333848759477</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02470592617624137</v>
+        <v>0.02506077379387324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05391732005044009</v>
+        <v>0.05426750079869392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -1426,19 +1426,19 @@
         <v>31814</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23194</v>
+        <v>23830</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42956</v>
+        <v>42906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03511979874272457</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02560419519898517</v>
+        <v>0.0263064094671437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04741968889282047</v>
+        <v>0.04736403377617938</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>3285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1011</v>
+        <v>1089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8440</v>
+        <v>8393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006804111252434185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002093867635578465</v>
+        <v>0.002255943423026181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01748472309715947</v>
+        <v>0.01738743211347723</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1476,19 +1476,19 @@
         <v>5780</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2591</v>
+        <v>2771</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10779</v>
+        <v>10600</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01365955526161339</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006123804377215876</v>
+        <v>0.006547682677920629</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02547473107204215</v>
+        <v>0.02505061773719766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -1497,19 +1497,19 @@
         <v>9064</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4763</v>
+        <v>4950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15415</v>
+        <v>15765</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01000636627894205</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005257813605596288</v>
+        <v>0.005464345271154648</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01701699475648391</v>
+        <v>0.01740341202260477</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>255472</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>231680</v>
+        <v>232226</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>276766</v>
+        <v>280565</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5292249075372797</v>
+        <v>0.5292249075372798</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4799377126626674</v>
+        <v>0.4810698292526777</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5733363701049634</v>
+        <v>0.5812069787724499</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>169</v>
@@ -1547,19 +1547,19 @@
         <v>120515</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>104961</v>
+        <v>103617</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>136167</v>
+        <v>134247</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2848102986585905</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2480512039769262</v>
+        <v>0.2448741367629015</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3217992587061512</v>
+        <v>0.3172622485627885</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>434</v>
@@ -1568,19 +1568,19 @@
         <v>375987</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>346048</v>
+        <v>345784</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>401631</v>
+        <v>402876</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4150560938490989</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3820058966989441</v>
+        <v>0.381714249195834</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4433649931519228</v>
+        <v>0.4447393374998133</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>122001</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101644</v>
+        <v>99858</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146200</v>
+        <v>144522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2527323078880173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2105613578365134</v>
+        <v>0.2068617104685951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3028604657781895</v>
+        <v>0.2993863567224994</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -1618,19 +1618,19 @@
         <v>88631</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74797</v>
+        <v>73371</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104722</v>
+        <v>103691</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2094596415135172</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.176765394682345</v>
+        <v>0.1733955005598507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2474860286588174</v>
+        <v>0.2450493525137819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>216</v>
@@ -1639,19 +1639,19 @@
         <v>210632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>183972</v>
+        <v>184592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>239208</v>
+        <v>235448</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2325191585686442</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2030888514771179</v>
+        <v>0.2037725929573594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2640644322465754</v>
+        <v>0.2599132830822893</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>335066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>312109</v>
+        <v>311400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>355909</v>
+        <v>355050</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6941086225725005</v>
+        <v>0.6941086225725003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6465520487724056</v>
+        <v>0.645083052664605</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7372850442447532</v>
+        <v>0.7355058843727946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>561</v>
@@ -1689,19 +1689,19 @@
         <v>398221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>383945</v>
+        <v>386770</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>406087</v>
+        <v>406370</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9411038273092517</v>
+        <v>0.9411038273092516</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9073657844206053</v>
+        <v>0.914041159591183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9596926466691384</v>
+        <v>0.9603610551805795</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>895</v>
@@ -1710,19 +1710,19 @@
         <v>733287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>708011</v>
+        <v>706957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>757321</v>
+        <v>755956</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8094828616199723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7815803811689069</v>
+        <v>0.7804166211781062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8360146910419094</v>
+        <v>0.8345071615005087</v>
       </c>
     </row>
     <row r="18">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5982</v>
+        <v>7583</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.002419055934118453</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01268368832575819</v>
+        <v>0.01607959898252213</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5706</v>
+        <v>7629</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001732399636824273</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008664099305032587</v>
+        <v>0.01158541896614091</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>14121</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8229</v>
+        <v>8661</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21255</v>
+        <v>21959</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02994236609556679</v>
+        <v>0.02994236609556678</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01744881675021747</v>
+        <v>0.01836450019897627</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04506791123795293</v>
+        <v>0.0465611281519444</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1827,19 +1827,19 @@
         <v>7009</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3662</v>
+        <v>3870</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11330</v>
+        <v>11550</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03749288520487797</v>
+        <v>0.03749288520487796</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01959007164739243</v>
+        <v>0.02070364616242419</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06061163008659378</v>
+        <v>0.06178704496081</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1848,19 +1848,19 @@
         <v>21130</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14482</v>
+        <v>14395</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28834</v>
+        <v>29504</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03208560363758663</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0219912315559273</v>
+        <v>0.02185857951784558</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04378476991325955</v>
+        <v>0.04480167622932828</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>9011</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4426</v>
+        <v>4558</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16959</v>
+        <v>17997</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01910587679874176</v>
+        <v>0.01910587679874175</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009385389249867496</v>
+        <v>0.009665260593145007</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03595894797590619</v>
+        <v>0.03816126154299092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -1898,19 +1898,19 @@
         <v>7386</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3880</v>
+        <v>4083</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12634</v>
+        <v>12463</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03951337503761117</v>
+        <v>0.03951337503761116</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02075511268572287</v>
+        <v>0.02184021575022824</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06758655899146399</v>
+        <v>0.06667375923187638</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1919,19 +1919,19 @@
         <v>16397</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10688</v>
+        <v>10892</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25248</v>
+        <v>25775</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02489860650792317</v>
+        <v>0.02489860650792318</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01622976983002635</v>
+        <v>0.01653958096657523</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03833870498820135</v>
+        <v>0.03913901151363203</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>10254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6238</v>
+        <v>6164</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17981</v>
+        <v>17574</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0217427788251496</v>
+        <v>0.02174277882514959</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01322784579844227</v>
+        <v>0.01307022658734946</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03812600671546161</v>
+        <v>0.03726358372887474</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1969,19 +1969,19 @@
         <v>7753</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3810</v>
+        <v>4301</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13443</v>
+        <v>13576</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.0414734227673755</v>
+        <v>0.04147342276737549</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02038144610497308</v>
+        <v>0.02300658746502681</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07191455480882621</v>
+        <v>0.07262586164600042</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -1990,19 +1990,19 @@
         <v>18007</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11530</v>
+        <v>12174</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>26181</v>
+        <v>26526</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02734338140796497</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0175088640766246</v>
+        <v>0.01848617243720949</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03975557044995014</v>
+        <v>0.04027931085210842</v>
       </c>
     </row>
     <row r="22">
@@ -2019,19 +2019,19 @@
         <v>271032</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>247618</v>
+        <v>248257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>293045</v>
+        <v>293109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5746917383339539</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5250468487812165</v>
+        <v>0.5264015744222174</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6213694653808576</v>
+        <v>0.6215036510958445</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -2040,19 +2040,19 @@
         <v>47697</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38999</v>
+        <v>38783</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57817</v>
+        <v>59121</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2551623239086829</v>
+        <v>0.2551623239086828</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2086290286242597</v>
+        <v>0.2074770682854971</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3093009547876138</v>
+        <v>0.3162754616948674</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>350</v>
@@ -2061,19 +2061,19 @@
         <v>318728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>293790</v>
+        <v>294843</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>343994</v>
+        <v>344693</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4839923537139825</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4461239731588738</v>
+        <v>0.4477229527531486</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5223592363803115</v>
+        <v>0.5234199462918063</v>
       </c>
     </row>
     <row r="23">
@@ -2090,19 +2090,19 @@
         <v>100342</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>82227</v>
+        <v>83399</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>118567</v>
+        <v>119814</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2127649227225737</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1743530955558002</v>
+        <v>0.1768390443996878</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2514079889361273</v>
+        <v>0.2540526904213718</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>55</v>
@@ -2111,19 +2111,19 @@
         <v>40447</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>32423</v>
+        <v>30808</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>54161</v>
+        <v>52437</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2163745131692518</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1734531906145675</v>
+        <v>0.164812296569818</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2897395311939356</v>
+        <v>0.2805204647948732</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>153</v>
@@ -2132,19 +2132,19 @@
         <v>140789</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>119680</v>
+        <v>119038</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>163817</v>
+        <v>161639</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2137895158193711</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.181735270519702</v>
+        <v>0.1807609713139099</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2487571885457418</v>
+        <v>0.2454508288152307</v>
       </c>
     </row>
     <row r="24">
@@ -2161,19 +2161,19 @@
         <v>306191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>286331</v>
+        <v>283953</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>328503</v>
+        <v>327267</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6492433601627541</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6071319662324205</v>
+        <v>0.6020909425056674</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6965532144188222</v>
+        <v>0.6939334750196187</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>267</v>
@@ -2182,19 +2182,19 @@
         <v>170259</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>159085</v>
+        <v>157792</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>176750</v>
+        <v>176979</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9108231617800822</v>
+        <v>0.910823161780082</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8510425578388687</v>
+        <v>0.8441283468679971</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.945543509187495</v>
+        <v>0.9467695878673034</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>583</v>
@@ -2203,19 +2203,19 @@
         <v>476449</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>451191</v>
+        <v>449567</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>499362</v>
+        <v>497861</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7234935730214972</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6851380508027025</v>
+        <v>0.6826716464481289</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7582864057276716</v>
+        <v>0.7560064955099876</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>15166</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8272</v>
+        <v>8136</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25073</v>
+        <v>25021</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01339929569504062</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007308403605058535</v>
+        <v>0.00718866498809409</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02215279129223557</v>
+        <v>0.02210646786561846</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2257,19 +2257,19 @@
         <v>6278</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2402</v>
+        <v>2492</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14034</v>
+        <v>13360</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00729020930443376</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002788878429124859</v>
+        <v>0.002894144350778266</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01629577027477005</v>
+        <v>0.01551253923874247</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2278,19 +2278,19 @@
         <v>21444</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14196</v>
+        <v>13132</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34341</v>
+        <v>32703</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01075952054380418</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007122497806071293</v>
+        <v>0.006588757672560907</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01723014713265937</v>
+        <v>0.01640837433541744</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>47692</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36051</v>
+        <v>36089</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59733</v>
+        <v>59776</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0421368617324265</v>
+        <v>0.04213686173242649</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03185135588553317</v>
+        <v>0.03188523398196664</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05277455643650581</v>
+        <v>0.05281301059550803</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -2328,19 +2328,19 @@
         <v>17822</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12647</v>
+        <v>12207</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25075</v>
+        <v>24267</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02069379598707248</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01468482846562567</v>
+        <v>0.01417379520120767</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02911626770311397</v>
+        <v>0.02817768470534063</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>102</v>
@@ -2349,19 +2349,19 @@
         <v>65514</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>52976</v>
+        <v>53348</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>79375</v>
+        <v>80239</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.03287117640704811</v>
+        <v>0.03287117640704812</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02658028942484056</v>
+        <v>0.02676699455632018</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03982601538937812</v>
+        <v>0.0402590985152865</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>25884</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>18120</v>
+        <v>17619</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>38531</v>
+        <v>38878</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02286914887562677</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01600888873903163</v>
+        <v>0.01556705723808685</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03404253816143375</v>
+        <v>0.03434916212304542</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>29</v>
@@ -2399,19 +2399,19 @@
         <v>16022</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11391</v>
+        <v>10723</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23618</v>
+        <v>21968</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0186043615480798</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01322718821682122</v>
+        <v>0.01245082320346913</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02742397548519133</v>
+        <v>0.02550815230521089</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>60</v>
@@ -2420,19 +2420,19 @@
         <v>41907</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>31945</v>
+        <v>32220</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>56117</v>
+        <v>56227</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02102630709982923</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01602812589005439</v>
+        <v>0.01616617146984437</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02815612165840947</v>
+        <v>0.02821155806564356</v>
       </c>
     </row>
     <row r="28">
@@ -2449,19 +2449,19 @@
         <v>29277</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20834</v>
+        <v>19818</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44819</v>
+        <v>43245</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02586642220787478</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01840743212457691</v>
+        <v>0.01750958842781967</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03959796584726637</v>
+        <v>0.03820732717677403</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>28</v>
@@ -2470,19 +2470,19 @@
         <v>13716</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9357</v>
+        <v>9333</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19541</v>
+        <v>19825</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01592697731349643</v>
+        <v>0.01592697731349644</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01086518733335096</v>
+        <v>0.01083721679113605</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02269050147086811</v>
+        <v>0.02301950133938818</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>63</v>
@@ -2491,19 +2491,19 @@
         <v>42993</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>32381</v>
+        <v>32015</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>57220</v>
+        <v>58405</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02157152474340179</v>
+        <v>0.0215715247434018</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01624704693863239</v>
+        <v>0.01606318960472325</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02870949511042027</v>
+        <v>0.02930440630100532</v>
       </c>
     </row>
     <row r="29">
@@ -2520,19 +2520,19 @@
         <v>587623</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>547878</v>
+        <v>549567</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>623189</v>
+        <v>622661</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5191735221581709</v>
+        <v>0.519173522158171</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4840581150292927</v>
+        <v>0.4855504645599669</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5505967962992746</v>
+        <v>0.5501300854548826</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>322</v>
@@ -2541,19 +2541,19 @@
         <v>230379</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>207237</v>
+        <v>207550</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>256299</v>
+        <v>253189</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2675054359347746</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2406349544499769</v>
+        <v>0.240998170979542</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2976026817996468</v>
+        <v>0.2939919295854213</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>921</v>
@@ -2562,19 +2562,19 @@
         <v>818001</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>775898</v>
+        <v>772736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>862986</v>
+        <v>861856</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.410426138687996</v>
+        <v>0.4104261386879961</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3893009776066493</v>
+        <v>0.3877146694640083</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4329965900848166</v>
+        <v>0.4324296084245097</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>262851</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>229554</v>
+        <v>230041</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>299249</v>
+        <v>298717</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2322331516109778</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2028144539847128</v>
+        <v>0.2032442643564605</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2643908591858125</v>
+        <v>0.2639212309723566</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>313</v>
@@ -2612,19 +2612,19 @@
         <v>230091</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>207009</v>
+        <v>208337</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>255309</v>
+        <v>253878</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2671711761286178</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2403696703733817</v>
+        <v>0.241912176694927</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2964531561327179</v>
+        <v>0.2947915319196495</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>532</v>
@@ -2633,19 +2633,19 @@
         <v>492942</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>449897</v>
+        <v>452652</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>535683</v>
+        <v>535818</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2473300946001558</v>
+        <v>0.2473300946001559</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2257326022050158</v>
+        <v>0.2271147143299383</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2687749008908942</v>
+        <v>0.2688426687589931</v>
       </c>
     </row>
     <row r="31">
@@ -2662,19 +2662,19 @@
         <v>755615</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>721666</v>
+        <v>718472</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>787033</v>
+        <v>789732</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6675972025419727</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.637602903549073</v>
+        <v>0.6347809606105257</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6953551884658332</v>
+        <v>0.6977402031103542</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1168</v>
@@ -2683,19 +2683,19 @@
         <v>816354</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>802800</v>
+        <v>803189</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>827355</v>
+        <v>826587</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.947913921623178</v>
+        <v>0.9479139216231781</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9321756889203737</v>
+        <v>0.9326274668480765</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9606876960302111</v>
+        <v>0.9597957640006194</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1905</v>
@@ -2704,19 +2704,19 @@
         <v>1571969</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1530939</v>
+        <v>1534497</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1608462</v>
+        <v>1613333</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.7887238427945069</v>
+        <v>0.7887238427945071</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7681373332081547</v>
+        <v>0.7699223409331645</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8070336061353681</v>
+        <v>0.8094777520792792</v>
       </c>
     </row>
     <row r="32">
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3799</v>
+        <v>5638</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0015644793517534</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006689490662429975</v>
+        <v>0.009927255803142614</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2758,19 +2758,19 @@
         <v>2508</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>746</v>
+        <v>508</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6248</v>
+        <v>6412</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003018946947817564</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0008983937908798467</v>
+        <v>0.0006115842016313994</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.007519751074941135</v>
+        <v>0.007717250141402371</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2779,19 +2779,19 @@
         <v>3397</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1215</v>
+        <v>990</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7364</v>
+        <v>7488</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002428386036436323</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0008686293631300186</v>
+        <v>0.0007074211255587011</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005264164747927171</v>
+        <v>0.005353289516468581</v>
       </c>
     </row>
     <row r="33">
@@ -2808,19 +2808,19 @@
         <v>20732</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>14024</v>
+        <v>13593</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>30635</v>
+        <v>30882</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03650196027950012</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02469189624182581</v>
+        <v>0.02393221946810217</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05393844818384732</v>
+        <v>0.0543723434997405</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>107</v>
@@ -2829,19 +2829,19 @@
         <v>50972</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>41393</v>
+        <v>41178</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>62276</v>
+        <v>60930</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06134894971217252</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04982021257162239</v>
+        <v>0.0495608578983463</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07495402819044282</v>
+        <v>0.07333393831672415</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>136</v>
@@ -2850,19 +2850,19 @@
         <v>71704</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>60119</v>
+        <v>60088</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>86052</v>
+        <v>84642</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05126026794012997</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04297830893969606</v>
+        <v>0.04295641284213444</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06151775135525774</v>
+        <v>0.06050963070525479</v>
       </c>
     </row>
     <row r="34">
@@ -2879,19 +2879,19 @@
         <v>9156</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4960</v>
+        <v>4697</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15258</v>
+        <v>15981</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01612148544954138</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008732892892908883</v>
+        <v>0.008270137222077928</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02686380090933205</v>
+        <v>0.02813692577713071</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>45</v>
@@ -2900,19 +2900,19 @@
         <v>24035</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>17378</v>
+        <v>17889</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>31663</v>
+        <v>33150</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0289278246343179</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02091623227530943</v>
+        <v>0.02153059073554306</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03810920311260599</v>
+        <v>0.03989840755550148</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>58</v>
@@ -2921,19 +2921,19 @@
         <v>33191</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>25584</v>
+        <v>24912</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>43897</v>
+        <v>43247</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02372803650505023</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01828988678217191</v>
+        <v>0.01780935916450525</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03138132464974439</v>
+        <v>0.03091685375702207</v>
       </c>
     </row>
     <row r="35">
@@ -2950,19 +2950,19 @@
         <v>11697</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6988</v>
+        <v>6789</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20406</v>
+        <v>19333</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02059539922898358</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0123039823349781</v>
+        <v>0.01195274567008831</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03592904380558157</v>
+        <v>0.03403967569221685</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>59</v>
@@ -2971,19 +2971,19 @@
         <v>25724</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>20132</v>
+        <v>19743</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32843</v>
+        <v>32760</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03096100786787641</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02423119479684907</v>
+        <v>0.02376217433152943</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03952989844923296</v>
+        <v>0.03942995268522994</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>76</v>
@@ -2992,19 +2992,19 @@
         <v>37421</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>29590</v>
+        <v>28749</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>47422</v>
+        <v>47374</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02675223532363352</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02115345692261225</v>
+        <v>0.02055236365019963</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0339018264039923</v>
+        <v>0.03386760294316325</v>
       </c>
     </row>
     <row r="36">
@@ -3021,19 +3021,19 @@
         <v>254400</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>228626</v>
+        <v>228348</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>280721</v>
+        <v>279990</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.4479161240539319</v>
+        <v>0.4479161240539318</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4025359331183909</v>
+        <v>0.4020466869052322</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4942587582076922</v>
+        <v>0.4929706177195268</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>255</v>
@@ -3042,19 +3042,19 @@
         <v>164940</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>146134</v>
+        <v>146710</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>183257</v>
+        <v>183155</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1985190896858069</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1758844100128589</v>
+        <v>0.176578602142003</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2205650905644573</v>
+        <v>0.2204431301324322</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>502</v>
@@ -3063,19 +3063,19 @@
         <v>419340</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>388220</v>
+        <v>385996</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>454540</v>
+        <v>454403</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2997823562658078</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2775353349594848</v>
+        <v>0.2759453839908142</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3249465319399233</v>
+        <v>0.3248484450477798</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>157031</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>132357</v>
+        <v>134363</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>180910</v>
+        <v>183145</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2764811403210966</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2330382591239324</v>
+        <v>0.2365689626484533</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3185228981279932</v>
+        <v>0.3224590015304831</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>234</v>
@@ -3113,19 +3113,19 @@
         <v>165793</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>147304</v>
+        <v>146751</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>187169</v>
+        <v>189556</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1995466601513106</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1772931816221467</v>
+        <v>0.1766275628120462</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2252739753099235</v>
+        <v>0.228146898180412</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>373</v>
@@ -3134,19 +3134,19 @@
         <v>322825</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>293667</v>
+        <v>292847</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>356260</v>
+        <v>358462</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2307845487427498</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2099401938112025</v>
+        <v>0.2093538103065891</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2546870052547301</v>
+        <v>0.2562614744032986</v>
       </c>
     </row>
     <row r="38">
@@ -3163,19 +3163,19 @@
         <v>355993</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>330978</v>
+        <v>329745</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>382097</v>
+        <v>380517</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.6267871652218885</v>
+        <v>0.6267871652218884</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5827450295938268</v>
+        <v>0.580573266643804</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6727492845902656</v>
+        <v>0.6699664646995132</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1199</v>
@@ -3184,19 +3184,19 @@
         <v>782244</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>771802</v>
+        <v>770900</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>791709</v>
+        <v>791850</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.9414989135254075</v>
+        <v>0.9414989135254076</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9289303821267357</v>
+        <v>0.9278453911564375</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9528900325910614</v>
+        <v>0.953060173635613</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1539</v>
@@ -3205,19 +3205,19 @@
         <v>1138237</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1108407</v>
+        <v>1109600</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1165554</v>
+        <v>1167375</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8137157594672192</v>
+        <v>0.813715759467219</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7923908493646443</v>
+        <v>0.7932431342994066</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8332445291723637</v>
+        <v>0.8345459511016908</v>
       </c>
     </row>
     <row r="39">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>17515</v>
+        <v>15344</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01439637479316341</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07383018084045108</v>
+        <v>0.06468081464824926</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>7</v>
@@ -3259,19 +3259,19 @@
         <v>5719</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2460</v>
+        <v>2268</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>13356</v>
+        <v>12425</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.006773814393290369</v>
+        <v>0.006773814393290368</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.002914036492915818</v>
+        <v>0.002686743650549694</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01581925454226085</v>
+        <v>0.01471713382011574</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>8</v>
@@ -3280,19 +3280,19 @@
         <v>9134</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3756</v>
+        <v>3916</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>23042</v>
+        <v>25405</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.00844581460708624</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.00347313833950683</v>
+        <v>0.00362084010513683</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02130505503343487</v>
+        <v>0.02349030495239057</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>5939</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1887</v>
+        <v>2149</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>17161</v>
+        <v>17589</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02503544516313178</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.00795366270434187</v>
+        <v>0.0090600512125582</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07234064632651453</v>
+        <v>0.07414220922574222</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>120</v>
@@ -3330,19 +3330,19 @@
         <v>65837</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>53939</v>
+        <v>55463</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>78559</v>
+        <v>78538</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.07798021218811046</v>
+        <v>0.07798021218811048</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06388752409755907</v>
+        <v>0.0656930667909888</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09304782376763764</v>
+        <v>0.09302342798797227</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>126</v>
@@ -3351,19 +3351,19 @@
         <v>71776</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>59438</v>
+        <v>59060</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>85838</v>
+        <v>87174</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06636683595476357</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05495832870953463</v>
+        <v>0.05460866245125686</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07936892389074426</v>
+        <v>0.08060448156876669</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>7665</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1448</v>
+        <v>1004</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24098</v>
+        <v>21651</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03231275081693664</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.006103886634240008</v>
+        <v>0.004230459780569975</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1015822094643697</v>
+        <v>0.09126502933421694</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>53</v>
@@ -3401,19 +3401,19 @@
         <v>33076</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>24977</v>
+        <v>24228</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>44005</v>
+        <v>44375</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0391771184645365</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02958384854991903</v>
+        <v>0.02869659972572729</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05212178720912794</v>
+        <v>0.05255905264029924</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>57</v>
@@ -3422,19 +3422,19 @@
         <v>40742</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>30094</v>
+        <v>29537</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>56901</v>
+        <v>57394</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.03767142699444312</v>
+        <v>0.03767142699444313</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02782548093878474</v>
+        <v>0.02731087514271615</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05261256215555025</v>
+        <v>0.05306807516073117</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>33185</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>25504</v>
+        <v>25057</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>43878</v>
+        <v>41834</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03930605000073362</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03020820782709563</v>
+        <v>0.02967896350654235</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05197123752821445</v>
+        <v>0.0495504156302505</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>62</v>
@@ -3485,19 +3485,19 @@
         <v>33185</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>25534</v>
+        <v>25478</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>43818</v>
+        <v>42431</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03068431129915608</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02360945828017908</v>
+        <v>0.02355763427888739</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04051581240368603</v>
+        <v>0.03923330394461867</v>
       </c>
     </row>
     <row r="43">
@@ -3514,19 +3514,19 @@
         <v>7724</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>3120</v>
+        <v>2942</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>16038</v>
+        <v>16548</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03256075092269228</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01315228650485901</v>
+        <v>0.01240256052297586</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06760475707524176</v>
+        <v>0.06975578062331332</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>122</v>
@@ -3535,19 +3535,19 @@
         <v>81922</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>67317</v>
+        <v>67795</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>99093</v>
+        <v>98044</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09703135036016988</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07973330510961257</v>
+        <v>0.08029892377394006</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1173696309709243</v>
+        <v>0.1161272439219152</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>128</v>
@@ -3556,19 +3556,19 @@
         <v>89646</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>72988</v>
+        <v>72692</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>108395</v>
+        <v>108989</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.08288979550350967</v>
+        <v>0.08288979550350968</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06748752478733609</v>
+        <v>0.0672130474652258</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1002258210099938</v>
+        <v>0.1007751929770939</v>
       </c>
     </row>
     <row r="44">
@@ -3585,19 +3585,19 @@
         <v>186853</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>165799</v>
+        <v>167445</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>203157</v>
+        <v>204669</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7876499556663062</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6989027221619617</v>
+        <v>0.7058418907969828</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8563803385947739</v>
+        <v>0.862751278282892</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>254</v>
@@ -3606,19 +3606,19 @@
         <v>270901</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>242101</v>
+        <v>240302</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>302224</v>
+        <v>299880</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3208662550541441</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2867534677113788</v>
+        <v>0.2846231207475675</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3579659513261754</v>
+        <v>0.3551902055133814</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>334</v>
@@ -3627,19 +3627,19 @@
         <v>457754</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>418993</v>
+        <v>420617</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>499840</v>
+        <v>498069</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4232547447843091</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3874147777568868</v>
+        <v>0.3889165526252574</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4621686294024614</v>
+        <v>0.4605317331320551</v>
       </c>
     </row>
     <row r="45">
@@ -3656,19 +3656,19 @@
         <v>105643</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>83196</v>
+        <v>81278</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>127770</v>
+        <v>129789</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.4453241577903595</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.350699058579036</v>
+        <v>0.3426141280147866</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5385975556214986</v>
+        <v>0.5471053652402997</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>989</v>
@@ -3677,19 +3677,19 @@
         <v>683574</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>655095</v>
+        <v>655675</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>707840</v>
+        <v>707162</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.8096521951877105</v>
+        <v>0.8096521951877106</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.7759208241076798</v>
+        <v>0.7766080358408659</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.8383939594004803</v>
+        <v>0.8375903211675034</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1046</v>
@@ -3698,19 +3698,19 @@
         <v>789217</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>748087</v>
+        <v>748054</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>827208</v>
+        <v>823362</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.7297372421451154</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.6917064648892749</v>
+        <v>0.6916759852602274</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.7648644531422177</v>
+        <v>0.7613084370128472</v>
       </c>
     </row>
     <row r="46">
@@ -3731,19 +3731,19 @@
         <v>36174</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>24485</v>
+        <v>24836</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>53978</v>
+        <v>53347</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01050973559839437</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007113528632285782</v>
+        <v>0.00721557361217932</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01568207281752194</v>
+        <v>0.01549882148807686</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>30</v>
@@ -3752,19 +3752,19 @@
         <v>25567</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>17553</v>
+        <v>16445</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>37753</v>
+        <v>38028</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.007035168002277813</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.004829951977817662</v>
+        <v>0.004525171869721733</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01038840419391034</v>
+        <v>0.010464210742395</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>61</v>
@@ -3773,19 +3773,19 @@
         <v>61741</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>46122</v>
+        <v>45949</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>80831</v>
+        <v>81391</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.008725275209557503</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.006517912845444529</v>
+        <v>0.006493533589833479</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01142310401629583</v>
+        <v>0.01150218525679273</v>
       </c>
     </row>
     <row r="47">
@@ -3802,19 +3802,19 @@
         <v>105619</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>90423</v>
+        <v>88530</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>125829</v>
+        <v>125997</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03068546545781952</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02627062854648387</v>
+        <v>0.02572047067816229</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03655688531216685</v>
+        <v>0.03660570906934685</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>293</v>
@@ -3823,19 +3823,19 @@
         <v>154044</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>136836</v>
+        <v>135947</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>171495</v>
+        <v>173021</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04238780607513328</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03765286449973378</v>
+        <v>0.03740832562505451</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0471898299546667</v>
+        <v>0.04760970975057667</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>440</v>
@@ -3844,19 +3844,19 @@
         <v>259663</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>234153</v>
+        <v>235710</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>285018</v>
+        <v>287093</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03669552648285553</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03309048356204172</v>
+        <v>0.03331058993808592</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04027876735096465</v>
+        <v>0.04057197530652639</v>
       </c>
     </row>
     <row r="48">
@@ -3873,19 +3873,19 @@
         <v>99560</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>81602</v>
+        <v>81136</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>121379</v>
+        <v>123299</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02892503356703319</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02370782639928151</v>
+        <v>0.02357241412627505</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03526409689647868</v>
+        <v>0.03582183845200924</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>216</v>
@@ -3894,19 +3894,19 @@
         <v>130485</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>113621</v>
+        <v>112847</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>148454</v>
+        <v>150795</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.03590521522706346</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03126486962136521</v>
+        <v>0.03105196670227087</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04084975828933957</v>
+        <v>0.04149388252178444</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>336</v>
@@ -3915,19 +3915,19 @@
         <v>230045</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>206188</v>
+        <v>204724</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>261943</v>
+        <v>259634</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.03250989911782322</v>
+        <v>0.03250989911782323</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02913842362781279</v>
+        <v>0.02893154492550394</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.0370177962522437</v>
+        <v>0.03669149580583221</v>
       </c>
     </row>
     <row r="49">
@@ -3944,19 +3944,19 @@
         <v>61849</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>48368</v>
+        <v>48588</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>79510</v>
+        <v>78488</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01796898132441277</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01405225784846629</v>
+        <v>0.01411616733623296</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02309986222710755</v>
+        <v>0.02280311217176441</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>172</v>
@@ -3965,19 +3965,19 @@
         <v>87440</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>75617</v>
+        <v>74107</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>103878</v>
+        <v>101587</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.02406056584281114</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02080732910567238</v>
+        <v>0.02039194308072554</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0285839943252306</v>
+        <v>0.02795357275583848</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>253</v>
@@ -3986,19 +3986,19 @@
         <v>149289</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>129420</v>
+        <v>129035</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>171862</v>
+        <v>169083</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02109748321065702</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01828969569320465</v>
+        <v>0.01823520064527574</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02428750750830537</v>
+        <v>0.023894744403995</v>
       </c>
     </row>
     <row r="50">
@@ -4015,19 +4015,19 @@
         <v>1703701</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1639454</v>
+        <v>1631779</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1771076</v>
+        <v>1767329</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4949750105307222</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.476309493088693</v>
+        <v>0.4740798357343525</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5145495054990107</v>
+        <v>0.5134609604864512</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1179</v>
@@ -4036,19 +4036,19 @@
         <v>812281</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>769307</v>
+        <v>765844</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>855424</v>
+        <v>852657</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2235134967259243</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2116883680233241</v>
+        <v>0.2107355793473057</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.235384986549009</v>
+        <v>0.2346236881555354</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2918</v>
@@ -4057,19 +4057,19 @@
         <v>2515981</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2433560</v>
+        <v>2435843</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2598742</v>
+        <v>2598589</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.355558434200542</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3439106866284513</v>
+        <v>0.344233292903649</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3672542368393757</v>
+        <v>0.3672325615312236</v>
       </c>
     </row>
     <row r="51">
@@ -4086,19 +4086,19 @@
         <v>932236</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>872002</v>
+        <v>871040</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>996390</v>
+        <v>996495</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.2708417989522232</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2533422072006257</v>
+        <v>0.253062739576441</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2894804510753465</v>
+        <v>0.2895110364960153</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>1113</v>
@@ -4107,19 +4107,19 @@
         <v>903410</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>849340</v>
+        <v>854534</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>955630</v>
+        <v>952777</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.2485892469552946</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.2337107690162905</v>
+        <v>0.2351401101657711</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2629585010454973</v>
+        <v>0.262173462863318</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>1841</v>
@@ -4128,19 +4128,19 @@
         <v>1835645</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>1761071</v>
+        <v>1747209</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>1920698</v>
+        <v>1919058</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2594133847710073</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.2488745456813427</v>
+        <v>0.2469155401209624</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2714329873126566</v>
+        <v>0.2712013133390468</v>
       </c>
     </row>
     <row r="52">
@@ -4157,19 +4157,19 @@
         <v>2250911</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2189515</v>
+        <v>2192197</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>2319383</v>
+        <v>2314409</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.6539555929483224</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.6361183810886513</v>
+        <v>0.6368976151871211</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.6738488709621302</v>
+        <v>0.6724037630072535</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>4825</v>
@@ -4178,19 +4178,19 @@
         <v>3299966</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>3261610</v>
+        <v>3253640</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>3336243</v>
+        <v>3331591</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.9080438249562683</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.8974897080247828</v>
+        <v>0.8952966192207911</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.9180260720165735</v>
+        <v>0.9167460642617103</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>6996</v>
@@ -4199,19 +4199,19 @@
         <v>5550875</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>5471693</v>
+        <v>5466443</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>5624956</v>
+        <v>5626109</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.7844496394001852</v>
+        <v>0.7844496394001853</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.7732595879621189</v>
+        <v>0.7725177088569254</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.7949187447364022</v>
+        <v>0.7950815861976228</v>
       </c>
     </row>
     <row r="53">
